--- a/data/WF/clean/MOH515_chew_summary_data.xlsx
+++ b/data/WF/clean/MOH515_chew_summary_data.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac10015420146cc7/Consultancies/WorldFriends/analysis/data/WF/clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac10015420146cc7/Consultancies/WorldFriends/analysis/website/data/WF/clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{A28148D5-D95A-D44F-A647-9CECB5EC31C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24BF44CC-1A7E-5B48-A2E9-446B546390BF}"/>
+  <xr:revisionPtr revIDLastSave="418" documentId="8_{A28148D5-D95A-D44F-A647-9CECB5EC31C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5AFC0D1-F20F-0542-93D7-426A064189E7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
-    <sheet name="klf_north" sheetId="2" r:id="rId2"/>
-    <sheet name="klf_south" sheetId="3" r:id="rId3"/>
-    <sheet name="kaloleni" sheetId="5" r:id="rId4"/>
-    <sheet name="ganze" sheetId="6" r:id="rId5"/>
-    <sheet name="rabai" sheetId="4" r:id="rId6"/>
-    <sheet name="data_dict" sheetId="7" r:id="rId7"/>
+    <sheet name="raw_data_subcounty_extract" sheetId="9" r:id="rId2"/>
+    <sheet name="raw_data_dispensary_extract" sheetId="8" r:id="rId3"/>
+    <sheet name="klf_north" sheetId="2" r:id="rId4"/>
+    <sheet name="klf_south" sheetId="3" r:id="rId5"/>
+    <sheet name="kaloleni" sheetId="5" r:id="rId6"/>
+    <sheet name="ganze" sheetId="6" r:id="rId7"/>
+    <sheet name="rabai" sheetId="4" r:id="rId8"/>
+    <sheet name="data_dict" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="52">
   <si>
     <t>Total Number of Household Visited in the month (re-visited in quarter)</t>
   </si>
@@ -206,6 +208,18 @@
   </si>
   <si>
     <t>n_o5_malaria_treated</t>
+  </si>
+  <si>
+    <t>sub_county</t>
+  </si>
+  <si>
+    <t>dispensary</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>subcounty</t>
   </si>
 </sst>
 </file>
@@ -407,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -456,35 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -524,11 +509,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,16 +820,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:X142"/>
+  <dimension ref="A3:X154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="60" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" customWidth="1"/>
     <col min="4" max="24" width="12.83203125" customWidth="1"/>
   </cols>
@@ -899,10 +909,10 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -961,8 +971,8 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1019,8 +1029,8 @@
       <c r="X5" s="4"/>
     </row>
     <row r="6" spans="1:24" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1077,8 +1087,8 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,8 +1145,8 @@
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1193,8 +1203,8 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1251,8 +1261,8 @@
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1307,8 +1317,8 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1363,8 +1373,8 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1419,8 +1429,8 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1477,8 +1487,8 @@
       <c r="X13" s="4"/>
     </row>
     <row r="14" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
@@ -1533,8 +1543,8 @@
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1589,8 +1599,8 @@
       <c r="X15" s="4"/>
     </row>
     <row r="16" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1645,8 +1655,8 @@
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1705,8 +1715,8 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1763,8 +1773,8 @@
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1821,8 +1831,8 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1889,8 @@
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1937,8 +1947,8 @@
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1995,8 +2005,8 @@
       <c r="X22" s="4"/>
     </row>
     <row r="23" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
@@ -2053,8 +2063,8 @@
       <c r="X23" s="4"/>
     </row>
     <row r="24" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
@@ -2111,8 +2121,8 @@
       <c r="X24" s="4"/>
     </row>
     <row r="25" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
@@ -2169,8 +2179,8 @@
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="3" t="s">
         <v>27</v>
       </c>
@@ -2227,8 +2237,8 @@
       <c r="X26" s="4"/>
     </row>
     <row r="27" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
@@ -2285,8 +2295,8 @@
       <c r="X27" s="4"/>
     </row>
     <row r="28" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
@@ -2343,8 +2353,8 @@
       <c r="X28" s="4"/>
     </row>
     <row r="29" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="7" t="s">
         <v>30</v>
       </c>
@@ -2401,10 +2411,10 @@
       <c r="X29" s="8"/>
     </row>
     <row r="30" spans="1:24" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2461,8 +2471,8 @@
       <c r="X30" s="6"/>
     </row>
     <row r="31" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="3" t="s">
         <v>0</v>
       </c>
@@ -2517,8 +2527,8 @@
       <c r="X31" s="4"/>
     </row>
     <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
@@ -2573,8 +2583,8 @@
       <c r="X32" s="4"/>
     </row>
     <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2629,8 +2639,8 @@
       <c r="X33" s="4"/>
     </row>
     <row r="34" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2685,8 +2695,8 @@
       <c r="X34" s="4"/>
     </row>
     <row r="35" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
@@ -2741,8 +2751,8 @@
       <c r="X35" s="4"/>
     </row>
     <row r="36" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="3" t="s">
         <v>6</v>
       </c>
@@ -2797,8 +2807,8 @@
       <c r="X36" s="4"/>
     </row>
     <row r="37" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
@@ -2853,8 +2863,8 @@
       <c r="X37" s="4"/>
     </row>
     <row r="38" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
@@ -2909,8 +2919,8 @@
       <c r="X38" s="4"/>
     </row>
     <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
@@ -2965,8 +2975,8 @@
       <c r="X39" s="4"/>
     </row>
     <row r="40" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="3" t="s">
         <v>28</v>
       </c>
@@ -3021,8 +3031,8 @@
       <c r="X40" s="4"/>
     </row>
     <row r="41" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="3" t="s">
         <v>29</v>
       </c>
@@ -3077,8 +3087,8 @@
       <c r="X41" s="4"/>
     </row>
     <row r="42" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="11" t="s">
         <v>30</v>
       </c>
@@ -3133,8 +3143,8 @@
       <c r="X42" s="12"/>
     </row>
     <row r="43" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="33"/>
+      <c r="B43" s="38" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -3195,8 +3205,8 @@
       <c r="X43" s="6"/>
     </row>
     <row r="44" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="3" t="s">
         <v>0</v>
       </c>
@@ -3253,8 +3263,8 @@
       <c r="X44" s="4"/>
     </row>
     <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
@@ -3313,8 +3323,8 @@
       <c r="X45" s="4"/>
     </row>
     <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3373,8 +3383,8 @@
       <c r="X46" s="4"/>
     </row>
     <row r="47" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3433,8 +3443,8 @@
       <c r="X47" s="4"/>
     </row>
     <row r="48" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3493,8 +3503,8 @@
       <c r="X48" s="4"/>
     </row>
     <row r="49" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="3" t="s">
         <v>6</v>
       </c>
@@ -3553,8 +3563,8 @@
       <c r="X49" s="4"/>
     </row>
     <row r="50" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
@@ -3613,8 +3623,8 @@
       <c r="X50" s="4"/>
     </row>
     <row r="51" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3673,8 +3683,8 @@
       <c r="X51" s="4"/>
     </row>
     <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="3" t="s">
         <v>27</v>
       </c>
@@ -3733,8 +3743,8 @@
       <c r="X52" s="4"/>
     </row>
     <row r="53" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="3" t="s">
         <v>28</v>
       </c>
@@ -3793,8 +3803,8 @@
       <c r="X53" s="4"/>
     </row>
     <row r="54" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="3" t="s">
         <v>29</v>
       </c>
@@ -3853,8 +3863,8 @@
       <c r="X54" s="4"/>
     </row>
     <row r="55" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="7" t="s">
         <v>30</v>
       </c>
@@ -3913,10 +3923,10 @@
       <c r="X55" s="8"/>
     </row>
     <row r="56" spans="1:24" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -3977,8 +3987,8 @@
       <c r="X56" s="6"/>
     </row>
     <row r="57" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="3" t="s">
         <v>0</v>
       </c>
@@ -4037,8 +4047,8 @@
       <c r="X57" s="4"/>
     </row>
     <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="3" t="s">
         <v>2</v>
       </c>
@@ -4097,8 +4107,8 @@
       <c r="X58" s="4"/>
     </row>
     <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4157,8 +4167,8 @@
       <c r="X59" s="4"/>
     </row>
     <row r="60" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4217,8 +4227,8 @@
       <c r="X60" s="4"/>
     </row>
     <row r="61" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
@@ -4277,8 +4287,8 @@
       <c r="X61" s="4"/>
     </row>
     <row r="62" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="3" t="s">
         <v>6</v>
       </c>
@@ -4337,8 +4347,8 @@
       <c r="X62" s="4"/>
     </row>
     <row r="63" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="3" t="s">
         <v>7</v>
       </c>
@@ -4397,8 +4407,8 @@
       <c r="X63" s="4"/>
     </row>
     <row r="64" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="3" t="s">
         <v>8</v>
       </c>
@@ -4457,8 +4467,8 @@
       <c r="X64" s="4"/>
     </row>
     <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="3" t="s">
         <v>27</v>
       </c>
@@ -4517,8 +4527,8 @@
       <c r="X65" s="4"/>
     </row>
     <row r="66" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="3" t="s">
         <v>28</v>
       </c>
@@ -4577,8 +4587,8 @@
       <c r="X66" s="4"/>
     </row>
     <row r="67" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="3" t="s">
         <v>29</v>
       </c>
@@ -4637,8 +4647,8 @@
       <c r="X67" s="4"/>
     </row>
     <row r="68" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="11" t="s">
         <v>30</v>
       </c>
@@ -4697,8 +4707,8 @@
       <c r="X68" s="12"/>
     </row>
     <row r="69" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A69" s="23"/>
-      <c r="B69" s="28" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -4760,8 +4770,8 @@
       <c r="X69" s="6"/>
     </row>
     <row r="70" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="3" t="s">
         <v>0</v>
       </c>
@@ -4821,8 +4831,8 @@
       <c r="X70" s="4"/>
     </row>
     <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="3" t="s">
         <v>2</v>
       </c>
@@ -4881,8 +4891,8 @@
       <c r="X71" s="4"/>
     </row>
     <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4941,8 +4951,8 @@
       <c r="X72" s="4"/>
     </row>
     <row r="73" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="3" t="s">
         <v>4</v>
       </c>
@@ -5002,8 +5012,8 @@
       <c r="X73" s="4"/>
     </row>
     <row r="74" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="3" t="s">
         <v>5</v>
       </c>
@@ -5063,8 +5073,8 @@
       <c r="X74" s="4"/>
     </row>
     <row r="75" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="3" t="s">
         <v>6</v>
       </c>
@@ -5124,8 +5134,8 @@
       <c r="X75" s="4"/>
     </row>
     <row r="76" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="3" t="s">
         <v>7</v>
       </c>
@@ -5185,8 +5195,8 @@
       <c r="X76" s="4"/>
     </row>
     <row r="77" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="3" t="s">
         <v>8</v>
       </c>
@@ -5245,8 +5255,8 @@
       <c r="X77" s="4"/>
     </row>
     <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="3" t="s">
         <v>27</v>
       </c>
@@ -5306,8 +5316,8 @@
       <c r="X78" s="4"/>
     </row>
     <row r="79" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="3" t="s">
         <v>28</v>
       </c>
@@ -5367,8 +5377,8 @@
       <c r="X79" s="4"/>
     </row>
     <row r="80" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="3" t="s">
         <v>29</v>
       </c>
@@ -5428,8 +5438,8 @@
       <c r="X80" s="4"/>
     </row>
     <row r="81" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="24"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="34"/>
       <c r="C81" s="7" t="s">
         <v>30</v>
       </c>
@@ -5489,10 +5499,10 @@
       <c r="X81" s="8"/>
     </row>
     <row r="82" spans="1:24" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -5553,8 +5563,8 @@
       <c r="X82" s="6"/>
     </row>
     <row r="83" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="3" t="s">
         <v>0</v>
       </c>
@@ -5613,8 +5623,8 @@
       <c r="X83" s="4"/>
     </row>
     <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="3" t="s">
         <v>2</v>
       </c>
@@ -5673,8 +5683,8 @@
       <c r="X84" s="4"/>
     </row>
     <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="3" t="s">
         <v>3</v>
       </c>
@@ -5733,8 +5743,8 @@
       <c r="X85" s="4"/>
     </row>
     <row r="86" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="3" t="s">
         <v>4</v>
       </c>
@@ -5793,8 +5803,8 @@
       <c r="X86" s="4"/>
     </row>
     <row r="87" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="3" t="s">
         <v>5</v>
       </c>
@@ -5853,8 +5863,8 @@
       <c r="X87" s="4"/>
     </row>
     <row r="88" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="3" t="s">
         <v>6</v>
       </c>
@@ -5913,8 +5923,8 @@
       <c r="X88" s="4"/>
     </row>
     <row r="89" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="3" t="s">
         <v>7</v>
       </c>
@@ -5973,8 +5983,8 @@
       <c r="X89" s="4"/>
     </row>
     <row r="90" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="3" t="s">
         <v>8</v>
       </c>
@@ -6033,8 +6043,8 @@
       <c r="X90" s="4"/>
     </row>
     <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="3" t="s">
         <v>27</v>
       </c>
@@ -6093,8 +6103,8 @@
       <c r="X91" s="4"/>
     </row>
     <row r="92" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A92" s="23"/>
-      <c r="B92" s="23"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="3" t="s">
         <v>28</v>
       </c>
@@ -6153,8 +6163,8 @@
       <c r="X92" s="4"/>
     </row>
     <row r="93" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="3" t="s">
         <v>29</v>
       </c>
@@ -6213,8 +6223,8 @@
       <c r="X93" s="4"/>
     </row>
     <row r="94" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="11" t="s">
         <v>30</v>
       </c>
@@ -6273,8 +6283,8 @@
       <c r="X94" s="12"/>
     </row>
     <row r="95" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A95" s="23"/>
-      <c r="B95" s="28" t="s">
+      <c r="A95" s="33"/>
+      <c r="B95" s="38" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -6335,8 +6345,8 @@
       <c r="X95" s="6"/>
     </row>
     <row r="96" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="3" t="s">
         <v>0</v>
       </c>
@@ -6395,8 +6405,8 @@
       <c r="X96" s="4"/>
     </row>
     <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="3" t="s">
         <v>2</v>
       </c>
@@ -6455,8 +6465,8 @@
       <c r="X97" s="4"/>
     </row>
     <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="23"/>
-      <c r="B98" s="23"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="3" t="s">
         <v>3</v>
       </c>
@@ -6515,8 +6525,8 @@
       <c r="X98" s="4"/>
     </row>
     <row r="99" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="23"/>
-      <c r="B99" s="23"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="3" t="s">
         <v>4</v>
       </c>
@@ -6575,8 +6585,8 @@
       <c r="X99" s="4"/>
     </row>
     <row r="100" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="23"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="3" t="s">
         <v>5</v>
       </c>
@@ -6635,8 +6645,8 @@
       <c r="X100" s="4"/>
     </row>
     <row r="101" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="23"/>
-      <c r="B101" s="23"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="3" t="s">
         <v>6</v>
       </c>
@@ -6695,8 +6705,8 @@
       <c r="X101" s="4"/>
     </row>
     <row r="102" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="3" t="s">
         <v>7</v>
       </c>
@@ -6755,8 +6765,8 @@
       <c r="X102" s="4"/>
     </row>
     <row r="103" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="3" t="s">
         <v>8</v>
       </c>
@@ -6815,8 +6825,8 @@
       <c r="X103" s="4"/>
     </row>
     <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="3" t="s">
         <v>27</v>
       </c>
@@ -6875,8 +6885,8 @@
       <c r="X104" s="4"/>
     </row>
     <row r="105" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="23"/>
-      <c r="B105" s="23"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="3" t="s">
         <v>28</v>
       </c>
@@ -6935,8 +6945,8 @@
       <c r="X105" s="4"/>
     </row>
     <row r="106" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="3" t="s">
         <v>29</v>
       </c>
@@ -6995,8 +7005,8 @@
       <c r="X106" s="4"/>
     </row>
     <row r="107" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="34"/>
       <c r="C107" s="7" t="s">
         <v>30</v>
       </c>
@@ -7055,10 +7065,10 @@
       <c r="X107" s="8"/>
     </row>
     <row r="108" spans="1:24" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B108" s="25" t="s">
+      <c r="B108" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C108" s="5" t="s">
@@ -7119,8 +7129,8 @@
       <c r="X108" s="6"/>
     </row>
     <row r="109" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="3" t="s">
         <v>0</v>
       </c>
@@ -7179,8 +7189,8 @@
       <c r="X109" s="4"/>
     </row>
     <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="3" t="s">
         <v>2</v>
       </c>
@@ -7235,8 +7245,8 @@
       <c r="X110" s="4"/>
     </row>
     <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="3" t="s">
         <v>3</v>
       </c>
@@ -7291,8 +7301,8 @@
       <c r="X111" s="4"/>
     </row>
     <row r="112" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="3" t="s">
         <v>4</v>
       </c>
@@ -7351,8 +7361,8 @@
       <c r="X112" s="4"/>
     </row>
     <row r="113" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A113" s="23"/>
-      <c r="B113" s="23"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="3" t="s">
         <v>5</v>
       </c>
@@ -7411,8 +7421,8 @@
       <c r="X113" s="4"/>
     </row>
     <row r="114" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A114" s="23"/>
-      <c r="B114" s="23"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="3" t="s">
         <v>6</v>
       </c>
@@ -7471,8 +7481,8 @@
       <c r="X114" s="4"/>
     </row>
     <row r="115" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A115" s="23"/>
-      <c r="B115" s="23"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="3" t="s">
         <v>7</v>
       </c>
@@ -7529,8 +7539,8 @@
       <c r="X115" s="4"/>
     </row>
     <row r="116" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A116" s="23"/>
-      <c r="B116" s="23"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="3" t="s">
         <v>8</v>
       </c>
@@ -7587,8 +7597,8 @@
       <c r="X116" s="4"/>
     </row>
     <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="23"/>
-      <c r="B117" s="23"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="3" t="s">
         <v>27</v>
       </c>
@@ -7647,8 +7657,8 @@
       <c r="X117" s="4"/>
     </row>
     <row r="118" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A118" s="23"/>
-      <c r="B118" s="23"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="3" t="s">
         <v>28</v>
       </c>
@@ -7707,8 +7717,8 @@
       <c r="X118" s="4"/>
     </row>
     <row r="119" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A119" s="23"/>
-      <c r="B119" s="23"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="3" t="s">
         <v>29</v>
       </c>
@@ -7767,8 +7777,8 @@
       <c r="X119" s="4"/>
     </row>
     <row r="120" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="23"/>
-      <c r="B120" s="26"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="11" t="s">
         <v>30</v>
       </c>
@@ -7827,8 +7837,8 @@
       <c r="X120" s="12"/>
     </row>
     <row r="121" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A121" s="23"/>
-      <c r="B121" s="25" t="s">
+      <c r="A121" s="33"/>
+      <c r="B121" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -7887,8 +7897,8 @@
       <c r="X121" s="6"/>
     </row>
     <row r="122" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A122" s="23"/>
-      <c r="B122" s="23"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="3" t="s">
         <v>0</v>
       </c>
@@ -7945,8 +7955,8 @@
       <c r="X122" s="4"/>
     </row>
     <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="23"/>
-      <c r="B123" s="23"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
       <c r="C123" s="3" t="s">
         <v>2</v>
       </c>
@@ -8003,8 +8013,8 @@
       <c r="X123" s="4"/>
     </row>
     <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="23"/>
-      <c r="B124" s="23"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="33"/>
       <c r="C124" s="3" t="s">
         <v>3</v>
       </c>
@@ -8061,8 +8071,8 @@
       <c r="X124" s="4"/>
     </row>
     <row r="125" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A125" s="23"/>
-      <c r="B125" s="23"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="3" t="s">
         <v>4</v>
       </c>
@@ -8119,8 +8129,8 @@
       <c r="X125" s="4"/>
     </row>
     <row r="126" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A126" s="23"/>
-      <c r="B126" s="23"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="33"/>
       <c r="C126" s="3" t="s">
         <v>5</v>
       </c>
@@ -8177,8 +8187,8 @@
       <c r="X126" s="4"/>
     </row>
     <row r="127" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A127" s="23"/>
-      <c r="B127" s="23"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="3" t="s">
         <v>6</v>
       </c>
@@ -8235,8 +8245,8 @@
       <c r="X127" s="4"/>
     </row>
     <row r="128" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A128" s="23"/>
-      <c r="B128" s="23"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="3" t="s">
         <v>7</v>
       </c>
@@ -8293,8 +8303,8 @@
       <c r="X128" s="4"/>
     </row>
     <row r="129" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A129" s="23"/>
-      <c r="B129" s="23"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="3" t="s">
         <v>8</v>
       </c>
@@ -8351,8 +8361,8 @@
       <c r="X129" s="4"/>
     </row>
     <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="23"/>
-      <c r="B130" s="23"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="3" t="s">
         <v>27</v>
       </c>
@@ -8409,8 +8419,8 @@
       <c r="X130" s="4"/>
     </row>
     <row r="131" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A131" s="23"/>
-      <c r="B131" s="23"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="33"/>
       <c r="C131" s="3" t="s">
         <v>28</v>
       </c>
@@ -8467,8 +8477,8 @@
       <c r="X131" s="4"/>
     </row>
     <row r="132" spans="1:24" ht="32" x14ac:dyDescent="0.2">
-      <c r="A132" s="23"/>
-      <c r="B132" s="23"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="3" t="s">
         <v>29</v>
       </c>
@@ -8525,8 +8535,8 @@
       <c r="X132" s="4"/>
     </row>
     <row r="133" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="34"/>
       <c r="C133" s="7" t="s">
         <v>30</v>
       </c>
@@ -8584,304 +8594,792 @@
     </row>
     <row r="134" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="136" spans="1:24" ht="200" x14ac:dyDescent="0.25">
-      <c r="A136" s="18"/>
-      <c r="B136" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136" s="19" t="s">
+      <c r="A136" s="39"/>
+      <c r="B136" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="19" t="s">
+      <c r="E136" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F136" s="19" t="s">
+      <c r="F136" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G136" s="19" t="s">
+      <c r="G136" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H136" s="19" t="s">
+      <c r="H136" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I136" s="19" t="s">
+      <c r="I136" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J136" s="19" t="s">
+      <c r="J136" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="K136" s="19" t="s">
+      <c r="K136" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A137" s="20" t="s">
+      <c r="A137" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B137" s="21" cm="1">
+      <c r="B137" s="41" cm="1">
         <f t="array" ref="B137">SUM(D4:X4+D17:X17)</f>
         <v>19572</v>
       </c>
-      <c r="C137" s="21" cm="1">
+      <c r="C137" s="41" cm="1">
         <f t="array" ref="C137">SUM(D5:X5+D18:X18)</f>
         <v>16694</v>
       </c>
-      <c r="D137" s="21" cm="1">
+      <c r="D137" s="41" cm="1">
         <f t="array" ref="D137">SUM($D9:$X9+$D22:$X22)</f>
         <v>357</v>
       </c>
-      <c r="E137" s="21" cm="1">
+      <c r="E137" s="41" cm="1">
         <f t="array" ref="E137">SUM($D10:$X10+$D23:$X23)</f>
         <v>4</v>
       </c>
-      <c r="F137" s="21" cm="1">
+      <c r="F137" s="41" cm="1">
         <f t="array" ref="F137">SUM($D11:$X11+$D24:$X24)</f>
         <v>0</v>
       </c>
-      <c r="G137" s="21" cm="1">
-        <f t="array" ref="G137">SUM($D12:$X12+$D25:$X25)</f>
-        <v>0</v>
-      </c>
-      <c r="H137" s="21" cm="1">
-        <f t="array" ref="H137">SUM(D13:X13+D26:X26)</f>
-        <v>67</v>
-      </c>
-      <c r="I137" s="21" cm="1">
-        <f t="array" ref="I137">SUM(D14:X14+D27:X27)</f>
-        <v>4</v>
-      </c>
-      <c r="J137" s="21" cm="1">
-        <f t="array" ref="J137">SUM(D15:X15+D28:X28)</f>
-        <v>0</v>
-      </c>
-      <c r="K137" s="21" cm="1">
-        <f t="array" ref="K137">SUM(D16:X16+D29:X29)</f>
+      <c r="G137" s="41" cm="1">
+        <f t="array" ref="G137">SUM($D11:$X11+$D24:$X24)</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="41" cm="1">
+        <f t="array" ref="H137">SUM($D11:$X11+$D24:$X24)</f>
+        <v>0</v>
+      </c>
+      <c r="I137" s="41" cm="1">
+        <f t="array" ref="I137">SUM($D11:$X11+$D24:$X24)</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="41" cm="1">
+        <f t="array" ref="J137">SUM($D11:$X11+$D24:$X24)</f>
+        <v>0</v>
+      </c>
+      <c r="K137" s="41" cm="1">
+        <f t="array" ref="K137">SUM($D11:$X11+$D24:$X24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A138" s="20" t="s">
+      <c r="A138" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B138" s="21" cm="1">
+      <c r="B138" s="41" cm="1">
         <f t="array" ref="B138">SUM(D30:X30+D43:X43)</f>
         <v>7714</v>
       </c>
-      <c r="C138" s="21" cm="1">
+      <c r="C138" s="41" cm="1">
         <f t="array" ref="C138">SUM(D31:X31+D44:X44)</f>
         <v>6352</v>
       </c>
-      <c r="D138" s="21" cm="1">
+      <c r="D138" s="41" cm="1">
         <f t="array" ref="D138">SUM(D35:X35+D48:X48)</f>
         <v>40</v>
       </c>
-      <c r="E138" s="21" cm="1">
+      <c r="E138" s="41" cm="1">
         <f t="array" ref="E138">SUM(D36:X36+D49:X49)</f>
         <v>128</v>
       </c>
-      <c r="F138" s="21" cm="1">
+      <c r="F138" s="41" cm="1">
         <f t="array" ref="F138">SUM(D37:X37+D50:X50)</f>
         <v>116</v>
       </c>
-      <c r="G138" s="21" cm="1">
+      <c r="G138" s="41" cm="1">
         <f t="array" ref="G138">SUM(D38:X38+D51:X51)</f>
         <v>116</v>
       </c>
-      <c r="H138" s="21" cm="1">
+      <c r="H138" s="41" cm="1">
         <f t="array" ref="H138">SUM(D39:X39+D52:X52)</f>
         <v>905</v>
       </c>
-      <c r="I138" s="21" cm="1">
+      <c r="I138" s="41" cm="1">
         <f t="array" ref="I138">SUM(D40:X40+D53:X53)</f>
         <v>688</v>
       </c>
-      <c r="J138" s="21" cm="1">
+      <c r="J138" s="41" cm="1">
         <f t="array" ref="J138">SUM(D41:X41+D54:X54)</f>
         <v>633</v>
       </c>
-      <c r="K138" s="21" cm="1">
+      <c r="K138" s="41" cm="1">
         <f t="array" ref="K138">SUM(D42:X42+D55:X55)</f>
         <v>633</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B139" s="21" cm="1">
+      <c r="B139" s="41" cm="1">
         <f t="array" ref="B139">SUM(D82:X82+D95:X95)</f>
         <v>9473</v>
       </c>
-      <c r="C139" s="21" cm="1">
+      <c r="C139" s="41" cm="1">
         <f t="array" ref="C139">SUM(D83:X83+D96:X96)</f>
         <v>8137</v>
       </c>
-      <c r="D139" s="21" cm="1">
+      <c r="D139" s="41" cm="1">
         <f t="array" ref="D139">SUM(D87:X87+D100:X100)</f>
         <v>3</v>
       </c>
-      <c r="E139" s="21" cm="1">
+      <c r="E139" s="41" cm="1">
         <f t="array" ref="E139">SUM(D88:X88+D101:X101)</f>
         <v>3</v>
       </c>
-      <c r="F139" s="21" cm="1">
+      <c r="F139" s="41" cm="1">
         <f t="array" ref="F139">SUM(D89:X89+D102:X102)</f>
         <v>3</v>
       </c>
-      <c r="G139" s="21" cm="1">
+      <c r="G139" s="41" cm="1">
         <f t="array" ref="G139">SUM(D90:X90+D103:X103)</f>
         <v>3</v>
       </c>
-      <c r="H139" s="21" cm="1">
+      <c r="H139" s="41" cm="1">
         <f t="array" ref="H139">SUM(D91:X91+D104:X104)</f>
         <v>181</v>
       </c>
-      <c r="I139" s="21" cm="1">
+      <c r="I139" s="41" cm="1">
         <f t="array" ref="I139">SUM(D92:X92+D105:X105)</f>
         <v>181</v>
       </c>
-      <c r="J139" s="21" cm="1">
+      <c r="J139" s="41" cm="1">
         <f t="array" ref="J139">SUM(D93:X93+D106:X106)</f>
         <v>107</v>
       </c>
-      <c r="K139" s="21" cm="1">
+      <c r="K139" s="41" cm="1">
         <f t="array" ref="K139">SUM(D94:X94+D107:X107)</f>
         <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B140" s="21" cm="1">
+      <c r="B140" s="41" cm="1">
         <f t="array" ref="B140">SUM(D56:X56+D69:X69)</f>
         <v>5914</v>
       </c>
-      <c r="C140" s="21" cm="1">
+      <c r="C140" s="41" cm="1">
         <f t="array" ref="C140">SUM(D57:X57+D70:X70)</f>
         <v>5882</v>
       </c>
-      <c r="D140" s="21" cm="1">
+      <c r="D140" s="41" cm="1">
         <f t="array" ref="D140">SUM(D61:X61+D74:X74)</f>
         <v>798</v>
       </c>
-      <c r="E140" s="21" cm="1">
+      <c r="E140" s="41" cm="1">
         <f t="array" ref="E140">SUM(D62:X62+D75:X75)</f>
         <v>159</v>
       </c>
-      <c r="F140" s="21" cm="1">
+      <c r="F140" s="41" cm="1">
         <f t="array" ref="F140">SUM(D63:X63+D76:X76)</f>
         <v>151</v>
       </c>
-      <c r="G140" s="21" cm="1">
+      <c r="G140" s="41" cm="1">
         <f t="array" ref="G140">SUM(D64:X64+D77:X77)</f>
         <v>20</v>
       </c>
-      <c r="H140" s="21" cm="1">
+      <c r="H140" s="41" cm="1">
         <f t="array" ref="H140">SUM(D78:X78+D65:X65)</f>
         <v>130</v>
       </c>
-      <c r="I140" s="21" cm="1">
+      <c r="I140" s="41" cm="1">
         <f t="array" ref="I140">SUM(D66:X66+D79:X79)</f>
         <v>111</v>
       </c>
-      <c r="J140" s="21" cm="1">
+      <c r="J140" s="41" cm="1">
         <f t="array" ref="J140">SUM(D67:X67+D80:X80)</f>
         <v>70</v>
       </c>
-      <c r="K140" s="21" cm="1">
+      <c r="K140" s="41" cm="1">
         <f t="array" ref="K140">SUM(D68:X68+D81:X81)</f>
         <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A141" s="20" t="s">
+      <c r="A141" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B141" s="21" cm="1">
+      <c r="B141" s="41" cm="1">
         <f t="array" ref="B141">SUM(D108:X108+D121:X121)</f>
         <v>10725</v>
       </c>
-      <c r="C141" s="21" cm="1">
+      <c r="C141" s="41" cm="1">
         <f t="array" ref="C141">SUM(D109:X109+D122:X122)</f>
         <v>6215</v>
       </c>
-      <c r="D141" s="21" cm="1">
+      <c r="D141" s="41" cm="1">
         <f t="array" ref="D141">SUM(D113:X113+D126:X126)</f>
         <v>36</v>
       </c>
-      <c r="E141" s="21" cm="1">
+      <c r="E141" s="41" cm="1">
         <f t="array" ref="E141">SUM(D114:X114+D127:X127)</f>
         <v>28</v>
       </c>
-      <c r="F141" s="21" cm="1">
+      <c r="F141" s="41" cm="1">
         <f t="array" ref="F141">SUM(D115:X115+D128:X128)</f>
         <v>2</v>
       </c>
-      <c r="G141" s="21" cm="1">
+      <c r="G141" s="41" cm="1">
         <f t="array" ref="G141">SUM(D116:X116+D129:X129)</f>
         <v>2</v>
       </c>
-      <c r="H141" s="21" cm="1">
+      <c r="H141" s="41" cm="1">
         <f t="array" ref="H141">SUM(D117:X117+D130:X130)</f>
         <v>146</v>
       </c>
-      <c r="I141" s="21" cm="1">
+      <c r="I141" s="41" cm="1">
         <f t="array" ref="I141">SUM(D118:X118+D131:X131)</f>
         <v>137</v>
       </c>
-      <c r="J141" s="21" cm="1">
+      <c r="J141" s="41" cm="1">
         <f t="array" ref="J141">SUM(D119:X119+D132:X132)</f>
         <v>27</v>
       </c>
-      <c r="K141" s="21" cm="1">
+      <c r="K141" s="41" cm="1">
         <f t="array" ref="K141">SUM(D120:X120+D133:X133)</f>
         <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
-      <c r="B142" s="21">
+      <c r="A142" s="39"/>
+      <c r="B142" s="41">
         <f>SUM(B137:B141)</f>
         <v>53398</v>
       </c>
-      <c r="C142" s="21">
+      <c r="C142" s="41">
         <f t="shared" ref="C142:K142" si="0">SUM(C137:C141)</f>
         <v>43280</v>
       </c>
-      <c r="D142" s="21">
+      <c r="D142" s="41">
         <f t="shared" si="0"/>
         <v>1234</v>
       </c>
-      <c r="E142" s="21">
+      <c r="E142" s="41">
         <f t="shared" si="0"/>
         <v>322</v>
       </c>
-      <c r="F142" s="21">
+      <c r="F142" s="41">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="G142" s="21">
+      <c r="G142" s="41">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="H142" s="21">
+      <c r="H142" s="41">
         <f t="shared" si="0"/>
-        <v>1429</v>
-      </c>
-      <c r="I142" s="21">
+        <v>1362</v>
+      </c>
+      <c r="I142" s="41">
         <f t="shared" si="0"/>
-        <v>1121</v>
-      </c>
-      <c r="J142" s="21">
+        <v>1117</v>
+      </c>
+      <c r="J142" s="41">
         <f t="shared" si="0"/>
         <v>837</v>
       </c>
-      <c r="K142" s="21">
+      <c r="K142" s="41">
         <f t="shared" si="0"/>
         <v>809</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A143" s="39"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="41"/>
+      <c r="K143" s="41"/>
+    </row>
+    <row r="144" spans="1:24" ht="140" x14ac:dyDescent="0.25">
+      <c r="A144" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B144" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C144" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I144" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J144" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K144" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A145" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="39">
+        <f>SUM(D5:X5)</f>
+        <v>12426</v>
+      </c>
+      <c r="D145" s="39">
+        <f>SUM($D9:$X9)</f>
+        <v>287</v>
+      </c>
+      <c r="E145" s="39">
+        <f>SUM($D10:$X10)</f>
+        <v>4</v>
+      </c>
+      <c r="F145" s="41">
+        <f>SUM($D11:$X11)</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="39">
+        <f>SUM($D11:$X11)</f>
+        <v>0</v>
+      </c>
+      <c r="H145" s="39">
+        <f>SUM($D11:$X11)</f>
+        <v>0</v>
+      </c>
+      <c r="I145" s="39">
+        <f>SUM($D11:$X11)</f>
+        <v>0</v>
+      </c>
+      <c r="J145" s="39">
+        <f>SUM($D11:$X11)</f>
+        <v>0</v>
+      </c>
+      <c r="K145" s="39">
+        <f>SUM($D11:$X11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A146" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="39">
+        <f>SUM(D18:X18)</f>
+        <v>4268</v>
+      </c>
+      <c r="D146" s="39">
+        <f>SUM($D22:$X22)</f>
+        <v>70</v>
+      </c>
+      <c r="E146" s="39">
+        <f>SUM($D23:$X23)</f>
+        <v>0</v>
+      </c>
+      <c r="F146" s="39">
+        <f>SUM($D24:$X24)</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="39">
+        <f>SUM($D24:$X24)</f>
+        <v>0</v>
+      </c>
+      <c r="H146" s="39">
+        <f>SUM($D24:$X24)</f>
+        <v>0</v>
+      </c>
+      <c r="I146" s="39">
+        <f>SUM($D24:$X24)</f>
+        <v>0</v>
+      </c>
+      <c r="J146" s="39">
+        <f>SUM($D24:$X24)</f>
+        <v>0</v>
+      </c>
+      <c r="K146" s="39">
+        <f>SUM($D24:$X24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A147" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="39">
+        <f>SUM(D31:X31)</f>
+        <v>4900</v>
+      </c>
+      <c r="D147" s="39">
+        <f>SUM(D35:X35)</f>
+        <v>21</v>
+      </c>
+      <c r="E147" s="39">
+        <f>SUM(D36:X36)</f>
+        <v>111</v>
+      </c>
+      <c r="F147" s="39">
+        <f>SUM(D37:X37)</f>
+        <v>108</v>
+      </c>
+      <c r="G147" s="39">
+        <f>SUM(D38:X38)</f>
+        <v>108</v>
+      </c>
+      <c r="H147" s="39">
+        <f>SUM(D39:X39)</f>
+        <v>877</v>
+      </c>
+      <c r="I147" s="39">
+        <f>SUM(D40:X40)</f>
+        <v>669</v>
+      </c>
+      <c r="J147" s="39">
+        <f>SUM(D41:X41)</f>
+        <v>600</v>
+      </c>
+      <c r="K147" s="39">
+        <f>SUM(D42:X42)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A148" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="39">
+        <f>SUM(D44:X44)</f>
+        <v>1452</v>
+      </c>
+      <c r="D148" s="39">
+        <f>SUM(D48:X48)</f>
+        <v>19</v>
+      </c>
+      <c r="E148" s="39">
+        <f>SUM(D49:X49)</f>
+        <v>17</v>
+      </c>
+      <c r="F148" s="39">
+        <f>SUM(D50:X50)</f>
+        <v>8</v>
+      </c>
+      <c r="G148" s="39">
+        <f>SUM(D51:X51)</f>
+        <v>8</v>
+      </c>
+      <c r="H148" s="39">
+        <f>SUM(D52:X52)</f>
+        <v>28</v>
+      </c>
+      <c r="I148" s="39">
+        <f>SUM(D53:X53)</f>
+        <v>19</v>
+      </c>
+      <c r="J148" s="39">
+        <f>SUM(D54:X54)</f>
+        <v>33</v>
+      </c>
+      <c r="K148" s="39">
+        <f>SUM(D55:X55)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A149" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="39">
+        <f>SUM(D83:X83)</f>
+        <v>5714</v>
+      </c>
+      <c r="D149" s="39">
+        <f>SUM(D87:X87)</f>
+        <v>3</v>
+      </c>
+      <c r="E149" s="39">
+        <f>SUM(D88:X88)</f>
+        <v>3</v>
+      </c>
+      <c r="F149" s="39">
+        <f>SUM(D89:X89)</f>
+        <v>3</v>
+      </c>
+      <c r="G149" s="39">
+        <f>SUM(D90:X90)</f>
+        <v>3</v>
+      </c>
+      <c r="H149" s="39">
+        <f>SUM(D91:X91)</f>
+        <v>125</v>
+      </c>
+      <c r="I149" s="39">
+        <f>SUM(D92:X92)</f>
+        <v>125</v>
+      </c>
+      <c r="J149" s="39">
+        <f>SUM(D93:X93)</f>
+        <v>82</v>
+      </c>
+      <c r="K149" s="39">
+        <f>SUM(D94:X94)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A150" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" s="39">
+        <f>SUM(D96:X96)</f>
+        <v>2423</v>
+      </c>
+      <c r="D150" s="39">
+        <f>SUM(D100:X100)</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="39">
+        <f>SUM(D101:X101)</f>
+        <v>0</v>
+      </c>
+      <c r="F150" s="39">
+        <f>SUM(D102:X102)</f>
+        <v>0</v>
+      </c>
+      <c r="G150" s="39">
+        <f>SUM(D103:X103)</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="39">
+        <f>SUM(D104:X104)</f>
+        <v>56</v>
+      </c>
+      <c r="I150" s="39">
+        <f>SUM(D105:X105)</f>
+        <v>56</v>
+      </c>
+      <c r="J150" s="39">
+        <f>SUM(D106:X106)</f>
+        <v>25</v>
+      </c>
+      <c r="K150" s="39">
+        <f>SUM(D107:X107)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A151" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="39">
+        <f>SUM(D57:X57)</f>
+        <v>3226</v>
+      </c>
+      <c r="D151" s="39">
+        <f>SUM(D61:X61)</f>
+        <v>653</v>
+      </c>
+      <c r="E151" s="39">
+        <f>SUM(D62:X62)</f>
+        <v>69</v>
+      </c>
+      <c r="F151" s="39">
+        <f>SUM(D63:X63)</f>
+        <v>103</v>
+      </c>
+      <c r="G151" s="39">
+        <f>SUM(D64:X64)</f>
+        <v>3</v>
+      </c>
+      <c r="H151" s="39">
+        <f>SUM(D65:X65)</f>
+        <v>4</v>
+      </c>
+      <c r="I151" s="39">
+        <f>SUM(D66:X66)</f>
+        <v>4</v>
+      </c>
+      <c r="J151" s="39">
+        <f>SUM(D67:X67)</f>
+        <v>25</v>
+      </c>
+      <c r="K151" s="39">
+        <f>SUM(D68:X68)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A152" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="39">
+        <f>SUM(D70:X70)</f>
+        <v>2656</v>
+      </c>
+      <c r="D152" s="39">
+        <f>SUM(D74:X74)</f>
+        <v>145</v>
+      </c>
+      <c r="E152" s="39">
+        <f>SUM(D75:X75)</f>
+        <v>90</v>
+      </c>
+      <c r="F152" s="39">
+        <f>SUM(D76:X76)</f>
+        <v>48</v>
+      </c>
+      <c r="G152" s="39">
+        <f>SUM(D77:X77)</f>
+        <v>17</v>
+      </c>
+      <c r="H152" s="39">
+        <f>SUM(D78:X78)</f>
+        <v>126</v>
+      </c>
+      <c r="I152" s="39">
+        <f>SUM(D79:X79)</f>
+        <v>107</v>
+      </c>
+      <c r="J152" s="39">
+        <f>SUM(D80:X80)</f>
+        <v>45</v>
+      </c>
+      <c r="K152" s="39">
+        <f>SUM(D81:X81)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A153" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="39">
+        <f>SUM(D57:X57)</f>
+        <v>3226</v>
+      </c>
+      <c r="D153" s="39">
+        <f>SUM(D113:X113)</f>
+        <v>10</v>
+      </c>
+      <c r="E153" s="39">
+        <f>SUM(D114:X114)</f>
+        <v>10</v>
+      </c>
+      <c r="F153" s="39">
+        <f>SUM(D115:X115)</f>
+        <v>0</v>
+      </c>
+      <c r="G153" s="39">
+        <f>SUM(D116:X116)</f>
+        <v>0</v>
+      </c>
+      <c r="H153" s="39">
+        <f>SUM(D117:X117)</f>
+        <v>42</v>
+      </c>
+      <c r="I153" s="39">
+        <f>SUM(D118:X118)</f>
+        <v>42</v>
+      </c>
+      <c r="J153" s="39">
+        <f>SUM(D119:X119)</f>
+        <v>4</v>
+      </c>
+      <c r="K153" s="39">
+        <f>SUM(D120:X120)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A154" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="39">
+        <f>SUM(D70:X70)</f>
+        <v>2656</v>
+      </c>
+      <c r="D154" s="39">
+        <f>SUM(D126:X126)</f>
+        <v>26</v>
+      </c>
+      <c r="E154" s="39">
+        <f>SUM(D127:X127)</f>
+        <v>18</v>
+      </c>
+      <c r="F154" s="39">
+        <f>SUM(D128:X128)</f>
+        <v>2</v>
+      </c>
+      <c r="G154" s="39">
+        <f>SUM(D129:X129)</f>
+        <v>2</v>
+      </c>
+      <c r="H154" s="39">
+        <f>SUM(D130:X130)</f>
+        <v>104</v>
+      </c>
+      <c r="I154" s="39">
+        <f>SUM(D131:X131)</f>
+        <v>95</v>
+      </c>
+      <c r="J154" s="39">
+        <f>SUM(D132:X132)</f>
+        <v>23</v>
+      </c>
+      <c r="K154" s="39">
+        <f>SUM(D133:X133)</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -8907,18 +9405,710 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF298786-F520-BE47-82B6-7182264048D3}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>19572</v>
+      </c>
+      <c r="C2">
+        <v>16694</v>
+      </c>
+      <c r="D2">
+        <v>357</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>67</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>7714</v>
+      </c>
+      <c r="C3">
+        <v>6352</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>116</v>
+      </c>
+      <c r="G3">
+        <v>116</v>
+      </c>
+      <c r="H3">
+        <v>905</v>
+      </c>
+      <c r="I3">
+        <v>688</v>
+      </c>
+      <c r="J3">
+        <v>633</v>
+      </c>
+      <c r="K3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>9473</v>
+      </c>
+      <c r="C4">
+        <v>8137</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>181</v>
+      </c>
+      <c r="I4">
+        <v>181</v>
+      </c>
+      <c r="J4">
+        <v>107</v>
+      </c>
+      <c r="K4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>5914</v>
+      </c>
+      <c r="C5">
+        <v>5882</v>
+      </c>
+      <c r="D5">
+        <v>798</v>
+      </c>
+      <c r="E5">
+        <v>159</v>
+      </c>
+      <c r="F5">
+        <v>151</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>130</v>
+      </c>
+      <c r="I5">
+        <v>111</v>
+      </c>
+      <c r="J5">
+        <v>70</v>
+      </c>
+      <c r="K5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>10725</v>
+      </c>
+      <c r="C6">
+        <v>6215</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>146</v>
+      </c>
+      <c r="I6">
+        <v>137</v>
+      </c>
+      <c r="J6">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>53398</v>
+      </c>
+      <c r="C7">
+        <v>43280</v>
+      </c>
+      <c r="D7">
+        <v>1234</v>
+      </c>
+      <c r="E7">
+        <v>322</v>
+      </c>
+      <c r="F7">
+        <v>272</v>
+      </c>
+      <c r="G7">
+        <v>141</v>
+      </c>
+      <c r="H7">
+        <v>1429</v>
+      </c>
+      <c r="I7">
+        <v>1121</v>
+      </c>
+      <c r="J7">
+        <v>837</v>
+      </c>
+      <c r="K7">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2C2DFD-48F8-B14E-A30B-CD6FBF77A6DB}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>12426</v>
+      </c>
+      <c r="D2">
+        <v>287</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>4268</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>4900</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>108</v>
+      </c>
+      <c r="G4">
+        <v>108</v>
+      </c>
+      <c r="H4">
+        <v>877</v>
+      </c>
+      <c r="I4">
+        <v>669</v>
+      </c>
+      <c r="J4">
+        <v>600</v>
+      </c>
+      <c r="K4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1452</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>5714</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>125</v>
+      </c>
+      <c r="I6">
+        <v>125</v>
+      </c>
+      <c r="J6">
+        <v>82</v>
+      </c>
+      <c r="K6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>2423</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <v>56</v>
+      </c>
+      <c r="J7">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>3226</v>
+      </c>
+      <c r="D8">
+        <v>653</v>
+      </c>
+      <c r="E8">
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <v>103</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>2656</v>
+      </c>
+      <c r="D9">
+        <v>145</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>126</v>
+      </c>
+      <c r="I9">
+        <v>107</v>
+      </c>
+      <c r="J9">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>3226</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>2656</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>104</v>
+      </c>
+      <c r="I11">
+        <v>95</v>
+      </c>
+      <c r="J11">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8465B9A-6D73-EB46-B0A9-181AFB749AAB}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" style="26" customWidth="1"/>
     <col min="4" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
@@ -8942,13 +10132,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2">
         <v>45170</v>
@@ -9015,10 +10205,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -9077,10 +10267,10 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -9139,10 +10329,10 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -9201,10 +10391,10 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -9263,10 +10453,10 @@
       <c r="X5" s="4"/>
     </row>
     <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -9325,10 +10515,10 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -9387,10 +10577,10 @@
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -9447,10 +10637,10 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -9507,10 +10697,10 @@
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -9567,10 +10757,10 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -9629,10 +10819,10 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -9689,10 +10879,10 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -9749,10 +10939,10 @@
       <c r="X13" s="4"/>
     </row>
     <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -9809,10 +10999,10 @@
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -9871,10 +11061,10 @@
       <c r="X15" s="4"/>
     </row>
     <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -9933,10 +11123,10 @@
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -9995,10 +11185,10 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -10057,10 +11247,10 @@
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -10119,10 +11309,10 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -10181,10 +11371,10 @@
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -10243,10 +11433,10 @@
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -10305,10 +11495,10 @@
       <c r="X22" s="4"/>
     </row>
     <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -10367,10 +11557,10 @@
       <c r="X23" s="4"/>
     </row>
     <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -10429,10 +11619,10 @@
       <c r="X24" s="4"/>
     </row>
     <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -10491,10 +11681,10 @@
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -10620,19 +11810,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F5D8D1-1696-BF4A-A542-949E7CFB8D5A}">
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="26" customWidth="1"/>
     <col min="4" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
@@ -10656,13 +11846,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2">
         <v>45170</v>
@@ -10729,10 +11919,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -10789,10 +11979,10 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -10849,10 +12039,10 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -10909,10 +12099,10 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -10969,10 +12159,10 @@
       <c r="X5" s="4"/>
     </row>
     <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -11029,10 +12219,10 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -11089,10 +12279,10 @@
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -11149,10 +12339,10 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -11209,10 +12399,10 @@
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -11269,10 +12459,10 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -11329,10 +12519,10 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -11389,10 +12579,10 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -11449,10 +12639,10 @@
       <c r="X13" s="4"/>
     </row>
     <row r="14" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -11509,10 +12699,10 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -11573,7 +12763,7 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -11635,7 +12825,7 @@
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -11699,7 +12889,7 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -11763,7 +12953,7 @@
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -11827,7 +13017,7 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -11891,7 +13081,7 @@
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -11955,7 +13145,7 @@
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -12019,7 +13209,7 @@
       <c r="X22" s="4"/>
     </row>
     <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -12083,7 +13273,7 @@
       <c r="X23" s="4"/>
     </row>
     <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -12147,7 +13337,7 @@
       <c r="X24" s="4"/>
     </row>
     <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -12211,7 +13401,7 @@
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -12344,12 +13534,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B11A4D-6DF6-7B49-9E1C-784422E9137B}">
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="54.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12378,15 +13568,15 @@
     <col min="24" max="24" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D1" s="2">
         <v>45170</v>
@@ -12456,7 +13646,7 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -12520,7 +13710,7 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -12584,7 +13774,7 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -12648,7 +13838,7 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -12712,7 +13902,7 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -12776,7 +13966,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -12840,7 +14030,7 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -12904,7 +14094,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -12968,7 +14158,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -13032,7 +14222,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -13096,7 +14286,7 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -13160,7 +14350,7 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -13224,7 +14414,7 @@
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -13288,7 +14478,7 @@
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -13352,7 +14542,7 @@
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -13416,7 +14606,7 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -13480,7 +14670,7 @@
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -13544,7 +14734,7 @@
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -13608,7 +14798,7 @@
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -13672,7 +14862,7 @@
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -13736,7 +14926,7 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -13800,7 +14990,7 @@
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -13864,7 +15054,7 @@
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -13928,7 +15118,7 @@
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -13992,7 +15182,7 @@
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -14122,12 +15312,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE695A8-3F9A-0345-BA8E-7C83050EA586}">
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14135,15 +15325,15 @@
     <col min="3" max="3" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>9</v>
+    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D1" s="2">
         <v>45170</v>
@@ -14210,10 +15400,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -14274,10 +15464,10 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -14338,10 +15528,10 @@
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -14398,10 +15588,10 @@
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -14458,10 +15648,10 @@
       <c r="X5" s="4"/>
     </row>
     <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -14522,10 +15712,10 @@
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -14586,10 +15776,10 @@
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -14650,10 +15840,10 @@
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -14712,10 +15902,10 @@
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -14774,10 +15964,10 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -14838,10 +16028,10 @@
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -14902,10 +16092,10 @@
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -14966,10 +16156,10 @@
       <c r="X13" s="4"/>
     </row>
     <row r="14" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -15030,10 +16220,10 @@
       <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -15092,10 +16282,10 @@
       <c r="X15" s="6"/>
     </row>
     <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -15154,10 +16344,10 @@
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -15216,10 +16406,10 @@
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -15278,10 +16468,10 @@
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -15340,10 +16530,10 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -15402,10 +16592,10 @@
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -15464,10 +16654,10 @@
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -15526,10 +16716,10 @@
       <c r="X22" s="4"/>
     </row>
     <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -15588,10 +16778,10 @@
       <c r="X23" s="4"/>
     </row>
     <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -15650,10 +16840,10 @@
       <c r="X24" s="4"/>
     </row>
     <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -15712,10 +16902,10 @@
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -15841,12 +17031,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DC5581-430E-4949-AFEE-6E80555E5C4B}">
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C27"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15854,15 +17044,15 @@
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D1" s="2">
         <v>45170</v>
@@ -15929,1604 +17119,1604 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30">
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
         <v>141</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="19">
         <v>330</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="19">
         <v>330</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="19">
         <v>189</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="19">
         <v>169</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="19">
         <v>149</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="19">
         <v>102</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="19">
         <v>412</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="19">
         <v>68</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="19">
         <v>68</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="19">
         <v>180</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="19">
         <v>182</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="19">
         <v>294</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="Q2" s="19">
         <v>352</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="19">
         <v>200</v>
       </c>
-      <c r="S2" s="30">
+      <c r="S2" s="19">
         <v>270</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="30">
+      <c r="C3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
         <v>187</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="19">
         <v>160</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="19">
         <v>160</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="19">
         <v>60</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="19">
         <v>78</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="19">
         <v>405</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="19">
         <v>93</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="19">
         <v>320</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="19">
         <v>102</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="19">
         <v>102</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="19">
         <v>319</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="19">
         <v>324</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="19">
         <v>250</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="19">
         <v>77</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="19">
         <v>227</v>
       </c>
-      <c r="S3" s="30">
+      <c r="S3" s="19">
         <v>362</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="30">
-        <v>1</v>
-      </c>
-      <c r="E4" s="30">
-        <v>1</v>
-      </c>
-      <c r="F4" s="30">
-        <v>1</v>
-      </c>
-      <c r="G4" s="30">
-        <v>1</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
-        <v>1</v>
-      </c>
-      <c r="J4" s="30">
-        <v>1</v>
-      </c>
-      <c r="K4" s="30">
-        <v>1</v>
-      </c>
-      <c r="L4" s="30">
-        <v>1</v>
-      </c>
-      <c r="M4" s="30">
-        <v>1</v>
-      </c>
-      <c r="N4" s="30">
-        <v>1</v>
-      </c>
-      <c r="O4" s="30">
-        <v>1</v>
-      </c>
-      <c r="P4" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="30">
-        <v>0</v>
-      </c>
-      <c r="R4" s="30">
-        <v>0</v>
-      </c>
-      <c r="S4" s="30">
-        <v>0</v>
-      </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19">
+        <v>1</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19">
+        <v>1</v>
+      </c>
+      <c r="N4" s="19">
+        <v>1</v>
+      </c>
+      <c r="O4" s="19">
+        <v>1</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
     </row>
     <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="30">
-        <v>1</v>
-      </c>
-      <c r="E5" s="30">
-        <v>1</v>
-      </c>
-      <c r="F5" s="30">
-        <v>1</v>
-      </c>
-      <c r="G5" s="30">
-        <v>1</v>
-      </c>
-      <c r="H5" s="30">
-        <v>1</v>
-      </c>
-      <c r="I5" s="30">
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
         <v>2</v>
       </c>
-      <c r="J5" s="30">
-        <v>1</v>
-      </c>
-      <c r="K5" s="30">
-        <v>1</v>
-      </c>
-      <c r="L5" s="30">
-        <v>1</v>
-      </c>
-      <c r="M5" s="30">
-        <v>1</v>
-      </c>
-      <c r="N5" s="30">
-        <v>1</v>
-      </c>
-      <c r="O5" s="30">
-        <v>1</v>
-      </c>
-      <c r="P5" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="30">
-        <v>1</v>
-      </c>
-      <c r="R5" s="30">
-        <v>0</v>
-      </c>
-      <c r="S5" s="30">
-        <v>0</v>
-      </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19">
+        <v>1</v>
+      </c>
+      <c r="M5" s="19">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1</v>
+      </c>
+      <c r="O5" s="19">
+        <v>1</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>1</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
     </row>
     <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30">
-        <v>1</v>
-      </c>
-      <c r="H6" s="30">
-        <v>1</v>
-      </c>
-      <c r="I6" s="30">
-        <v>1</v>
-      </c>
-      <c r="J6" s="30">
-        <v>1</v>
-      </c>
-      <c r="K6" s="30">
-        <v>1</v>
-      </c>
-      <c r="L6" s="30">
-        <v>1</v>
-      </c>
-      <c r="M6" s="30">
-        <v>1</v>
-      </c>
-      <c r="N6" s="30">
-        <v>1</v>
-      </c>
-      <c r="O6" s="30">
-        <v>1</v>
-      </c>
-      <c r="P6" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>1</v>
-      </c>
-      <c r="R6" s="30">
-        <v>1</v>
-      </c>
-      <c r="S6" s="30">
-        <v>1</v>
-      </c>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
+        <v>1</v>
+      </c>
+      <c r="O6" s="19">
+        <v>1</v>
+      </c>
+      <c r="P6" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>1</v>
+      </c>
+      <c r="R6" s="19">
+        <v>1</v>
+      </c>
+      <c r="S6" s="19">
+        <v>1</v>
+      </c>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="30">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0</v>
-      </c>
-      <c r="L7" s="31">
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
         <v>651</v>
       </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <v>0</v>
-      </c>
-      <c r="O7" s="30">
-        <v>0</v>
-      </c>
-      <c r="P7" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
-        <v>0</v>
-      </c>
-      <c r="S7" s="30">
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
         <v>2</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
     </row>
     <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
-        <v>0</v>
-      </c>
-      <c r="L8" s="31">
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
         <v>68</v>
       </c>
-      <c r="M8" s="30">
-        <v>0</v>
-      </c>
-      <c r="N8" s="30">
-        <v>0</v>
-      </c>
-      <c r="O8" s="30">
-        <v>0</v>
-      </c>
-      <c r="P8" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30">
-        <v>0</v>
-      </c>
-      <c r="S8" s="30">
-        <v>1</v>
-      </c>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19">
+        <v>1</v>
+      </c>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
     </row>
     <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="30">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
-        <v>0</v>
-      </c>
-      <c r="K9" s="30">
-        <v>0</v>
-      </c>
-      <c r="L9" s="31">
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
         <v>102</v>
       </c>
-      <c r="M9" s="30">
-        <v>0</v>
-      </c>
-      <c r="N9" s="30">
-        <v>0</v>
-      </c>
-      <c r="O9" s="30">
-        <v>0</v>
-      </c>
-      <c r="P9" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>0</v>
-      </c>
-      <c r="R9" s="30">
-        <v>0</v>
-      </c>
-      <c r="S9" s="30">
-        <v>1</v>
-      </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19">
+        <v>1</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
     </row>
     <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30">
-        <v>0</v>
-      </c>
-      <c r="L10" s="31">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
         <v>2</v>
       </c>
-      <c r="M10" s="30">
-        <v>0</v>
-      </c>
-      <c r="N10" s="30">
-        <v>0</v>
-      </c>
-      <c r="O10" s="30">
-        <v>0</v>
-      </c>
-      <c r="P10" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>0</v>
-      </c>
-      <c r="R10" s="30">
-        <v>0</v>
-      </c>
-      <c r="S10" s="30">
-        <v>1</v>
-      </c>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <v>1</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
     </row>
     <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="30">
-        <v>0</v>
-      </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30">
-        <v>0</v>
-      </c>
-      <c r="L11" s="30">
-        <v>0</v>
-      </c>
-      <c r="M11" s="30">
-        <v>0</v>
-      </c>
-      <c r="N11" s="30">
-        <v>0</v>
-      </c>
-      <c r="O11" s="30">
-        <v>0</v>
-      </c>
-      <c r="P11" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="30">
-        <v>0</v>
-      </c>
-      <c r="R11" s="30">
-        <v>0</v>
-      </c>
-      <c r="S11" s="31">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
         <v>4</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
     </row>
     <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="30">
-        <v>0</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30">
-        <v>0</v>
-      </c>
-      <c r="L12" s="30">
-        <v>0</v>
-      </c>
-      <c r="M12" s="30">
-        <v>0</v>
-      </c>
-      <c r="N12" s="30">
-        <v>0</v>
-      </c>
-      <c r="O12" s="30">
-        <v>0</v>
-      </c>
-      <c r="P12" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="30">
-        <v>0</v>
-      </c>
-      <c r="R12" s="30">
-        <v>0</v>
-      </c>
-      <c r="S12" s="31">
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19">
+        <v>0</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
         <v>4</v>
       </c>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
     </row>
     <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="30">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30">
-        <v>0</v>
-      </c>
-      <c r="L13" s="30">
-        <v>0</v>
-      </c>
-      <c r="M13" s="30">
-        <v>0</v>
-      </c>
-      <c r="N13" s="30">
-        <v>0</v>
-      </c>
-      <c r="O13" s="30">
-        <v>0</v>
-      </c>
-      <c r="P13" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="30">
-        <v>0</v>
-      </c>
-      <c r="R13" s="30">
-        <v>0</v>
-      </c>
-      <c r="S13" s="31">
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
         <v>25</v>
       </c>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
     </row>
     <row r="14" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="33">
-        <v>0</v>
-      </c>
-      <c r="E14" s="33">
-        <v>0</v>
-      </c>
-      <c r="F14" s="33">
-        <v>0</v>
-      </c>
-      <c r="G14" s="33">
-        <v>0</v>
-      </c>
-      <c r="H14" s="33">
-        <v>0</v>
-      </c>
-      <c r="I14" s="33">
-        <v>0</v>
-      </c>
-      <c r="J14" s="33">
-        <v>0</v>
-      </c>
-      <c r="K14" s="33">
-        <v>0</v>
-      </c>
-      <c r="L14" s="33">
-        <v>0</v>
-      </c>
-      <c r="M14" s="33">
-        <v>0</v>
-      </c>
-      <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="33">
-        <v>0</v>
-      </c>
-      <c r="P14" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="33">
-        <v>0</v>
-      </c>
-      <c r="R14" s="33">
-        <v>0</v>
-      </c>
-      <c r="S14" s="34">
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="22">
+        <v>0</v>
+      </c>
+      <c r="S14" s="23">
         <v>25</v>
       </c>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
     </row>
     <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="30">
+      <c r="C15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
         <v>256</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="19">
         <v>345</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="19">
         <v>56</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="19">
         <v>63</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="19">
         <v>63</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="19">
         <v>257</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="19">
         <v>160</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="19">
         <v>136</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="19">
         <v>52</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="19">
         <v>75</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="19">
         <v>219</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="19">
         <v>113</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="19">
         <v>215</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="19">
         <v>221</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="19">
         <v>201</v>
       </c>
-      <c r="S15" s="30">
+      <c r="S15" s="19">
         <v>46</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
     </row>
     <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="30">
+      <c r="C16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
         <v>539</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="19">
         <v>174</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="19">
         <v>259</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="19">
         <v>261</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="19">
         <v>261</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="19">
         <v>56</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="19">
         <v>56</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="19">
         <v>55</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="19">
         <v>135</v>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="19">
         <v>195</v>
       </c>
-      <c r="N16" s="30">
-        <v>0</v>
-      </c>
-      <c r="O16" s="30">
+      <c r="N16" s="19">
+        <v>0</v>
+      </c>
+      <c r="O16" s="19">
         <v>207</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="19">
         <v>55</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="19">
         <v>70</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="19">
         <v>127</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S16" s="19">
         <v>206</v>
       </c>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
     </row>
     <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="30">
-        <v>0</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0</v>
-      </c>
-      <c r="F17" s="30">
-        <v>0</v>
-      </c>
-      <c r="G17" s="30">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30">
-        <v>0</v>
-      </c>
-      <c r="I17" s="30">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30">
-        <v>0</v>
-      </c>
-      <c r="K17" s="30">
-        <v>0</v>
-      </c>
-      <c r="L17" s="30">
-        <v>0</v>
-      </c>
-      <c r="M17" s="30">
-        <v>1</v>
-      </c>
-      <c r="N17" s="30">
-        <v>0</v>
-      </c>
-      <c r="O17" s="30">
-        <v>0</v>
-      </c>
-      <c r="P17" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="30">
-        <v>0</v>
-      </c>
-      <c r="R17" s="30">
-        <v>1</v>
-      </c>
-      <c r="S17" s="30">
-        <v>0</v>
-      </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0</v>
+      </c>
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
+        <v>1</v>
+      </c>
+      <c r="N17" s="19">
+        <v>0</v>
+      </c>
+      <c r="O17" s="19">
+        <v>0</v>
+      </c>
+      <c r="P17" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
+        <v>1</v>
+      </c>
+      <c r="S17" s="19">
+        <v>0</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
     </row>
     <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="30">
-        <v>0</v>
-      </c>
-      <c r="E18" s="30">
-        <v>0</v>
-      </c>
-      <c r="F18" s="30">
-        <v>0</v>
-      </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <v>0</v>
-      </c>
-      <c r="J18" s="30">
-        <v>0</v>
-      </c>
-      <c r="K18" s="30">
-        <v>0</v>
-      </c>
-      <c r="L18" s="30">
-        <v>0</v>
-      </c>
-      <c r="M18" s="30">
-        <v>1</v>
-      </c>
-      <c r="N18" s="30">
-        <v>0</v>
-      </c>
-      <c r="O18" s="30">
-        <v>0</v>
-      </c>
-      <c r="P18" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="30">
-        <v>0</v>
-      </c>
-      <c r="R18" s="30">
-        <v>0</v>
-      </c>
-      <c r="S18" s="30">
-        <v>0</v>
-      </c>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0</v>
+      </c>
+      <c r="L18" s="19">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
+        <v>1</v>
+      </c>
+      <c r="N18" s="19">
+        <v>0</v>
+      </c>
+      <c r="O18" s="19">
+        <v>0</v>
+      </c>
+      <c r="P18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>0</v>
+      </c>
+      <c r="R18" s="19">
+        <v>0</v>
+      </c>
+      <c r="S18" s="19">
+        <v>0</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
     </row>
     <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="19">
         <v>2</v>
       </c>
-      <c r="E19" s="30">
-        <v>1</v>
-      </c>
-      <c r="F19" s="30">
-        <v>1</v>
-      </c>
-      <c r="G19" s="30">
-        <v>1</v>
-      </c>
-      <c r="H19" s="30">
-        <v>1</v>
-      </c>
-      <c r="I19" s="30">
-        <v>1</v>
-      </c>
-      <c r="J19" s="30">
-        <v>1</v>
-      </c>
-      <c r="K19" s="30">
-        <v>1</v>
-      </c>
-      <c r="L19" s="30">
-        <v>1</v>
-      </c>
-      <c r="M19" s="30">
-        <v>1</v>
-      </c>
-      <c r="N19" s="30">
-        <v>1</v>
-      </c>
-      <c r="O19" s="30">
-        <v>1</v>
-      </c>
-      <c r="P19" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="30">
-        <v>1</v>
-      </c>
-      <c r="R19" s="30">
-        <v>1</v>
-      </c>
-      <c r="S19" s="30">
-        <v>1</v>
-      </c>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>1</v>
+      </c>
+      <c r="R19" s="19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="19">
+        <v>1</v>
+      </c>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
     </row>
     <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="19">
         <v>46</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="19">
         <v>5</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="19">
         <v>19</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="19">
         <v>9</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="19">
         <v>7</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="19">
         <v>8</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="19">
         <v>9</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="19">
         <v>9</v>
       </c>
-      <c r="L20" s="30">
-        <v>0</v>
-      </c>
-      <c r="M20" s="30">
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
         <v>8</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="19">
         <v>4</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="19">
         <v>4</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="19">
         <v>2</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="19">
         <v>5</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="19">
         <v>7</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S20" s="19">
         <v>3</v>
       </c>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
     </row>
     <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="19">
         <v>17</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="19">
         <v>3</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="19">
         <v>12</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="19">
         <v>6</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="19">
         <v>7</v>
       </c>
-      <c r="I21" s="30">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30">
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
         <v>5</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="19">
         <v>2</v>
       </c>
-      <c r="L21" s="30">
-        <v>0</v>
-      </c>
-      <c r="M21" s="30">
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
         <v>4</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="19">
         <v>12</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="19">
         <v>4</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="19">
         <v>2</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="19">
         <v>7</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="19">
         <v>7</v>
       </c>
-      <c r="S21" s="30">
+      <c r="S21" s="19">
         <v>2</v>
       </c>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="19">
         <v>13</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="19">
         <v>5</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="19">
         <v>2</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="19">
         <v>9</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="19">
         <v>2</v>
       </c>
-      <c r="I22" s="30">
-        <v>0</v>
-      </c>
-      <c r="J22" s="30">
-        <v>0</v>
-      </c>
-      <c r="K22" s="30">
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
         <v>4</v>
       </c>
-      <c r="L22" s="30">
-        <v>0</v>
-      </c>
-      <c r="M22" s="30">
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19">
         <v>6</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="19">
         <v>4</v>
       </c>
-      <c r="O22" s="30">
-        <v>0</v>
-      </c>
-      <c r="P22" s="30">
+      <c r="O22" s="19">
+        <v>0</v>
+      </c>
+      <c r="P22" s="19">
         <v>2</v>
       </c>
-      <c r="Q22" s="30">
-        <v>0</v>
-      </c>
-      <c r="R22" s="30">
-        <v>0</v>
-      </c>
-      <c r="S22" s="30">
-        <v>1</v>
-      </c>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
+      <c r="Q22" s="19">
+        <v>0</v>
+      </c>
+      <c r="R22" s="19">
+        <v>0</v>
+      </c>
+      <c r="S22" s="19">
+        <v>1</v>
+      </c>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
     </row>
     <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="30">
-        <v>0</v>
-      </c>
-      <c r="E23" s="30">
-        <v>1</v>
-      </c>
-      <c r="F23" s="30">
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19">
         <v>2</v>
       </c>
-      <c r="G23" s="30">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30">
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
         <v>2</v>
       </c>
-      <c r="I23" s="30">
-        <v>0</v>
-      </c>
-      <c r="J23" s="30">
-        <v>0</v>
-      </c>
-      <c r="K23" s="30">
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
         <v>4</v>
       </c>
-      <c r="L23" s="30">
-        <v>0</v>
-      </c>
-      <c r="M23" s="30">
-        <v>0</v>
-      </c>
-      <c r="N23" s="30">
-        <v>0</v>
-      </c>
-      <c r="O23" s="30">
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0</v>
+      </c>
+      <c r="O23" s="19">
         <v>5</v>
       </c>
-      <c r="P23" s="30">
+      <c r="P23" s="19">
         <v>2</v>
       </c>
-      <c r="Q23" s="30">
-        <v>0</v>
-      </c>
-      <c r="R23" s="30">
-        <v>0</v>
-      </c>
-      <c r="S23" s="30">
-        <v>1</v>
-      </c>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
+      <c r="Q23" s="19">
+        <v>0</v>
+      </c>
+      <c r="R23" s="19">
+        <v>0</v>
+      </c>
+      <c r="S23" s="19">
+        <v>1</v>
+      </c>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
     </row>
     <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="19">
         <v>56</v>
       </c>
-      <c r="E24" s="30">
-        <v>0</v>
-      </c>
-      <c r="F24" s="30">
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
         <v>9</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="19">
         <v>10</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="19">
         <v>10</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="19">
         <v>3</v>
       </c>
-      <c r="J24" s="30">
-        <v>0</v>
-      </c>
-      <c r="K24" s="30">
+      <c r="J24" s="19">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19">
         <v>3</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="19">
         <v>6</v>
       </c>
-      <c r="M24" s="30">
+      <c r="M24" s="19">
         <v>3</v>
       </c>
-      <c r="N24" s="30">
+      <c r="N24" s="19">
         <v>14</v>
       </c>
-      <c r="O24" s="30">
-        <v>0</v>
-      </c>
-      <c r="P24" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="30">
-        <v>0</v>
-      </c>
-      <c r="R24" s="30">
+      <c r="O24" s="19">
+        <v>0</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>0</v>
+      </c>
+      <c r="R24" s="19">
         <v>8</v>
       </c>
-      <c r="S24" s="30">
+      <c r="S24" s="19">
         <v>4</v>
       </c>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
     </row>
     <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="19">
         <v>49</v>
       </c>
-      <c r="E25" s="30">
-        <v>0</v>
-      </c>
-      <c r="F25" s="30">
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
         <v>5</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="19">
         <v>4</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="19">
         <v>10</v>
       </c>
-      <c r="I25" s="30">
-        <v>0</v>
-      </c>
-      <c r="J25" s="30">
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="19">
         <v>6</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="19">
         <v>3</v>
       </c>
-      <c r="L25" s="30">
-        <v>0</v>
-      </c>
-      <c r="M25" s="30">
-        <v>0</v>
-      </c>
-      <c r="N25" s="30">
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
+        <v>0</v>
+      </c>
+      <c r="N25" s="19">
         <v>12</v>
       </c>
-      <c r="O25" s="30">
-        <v>0</v>
-      </c>
-      <c r="P25" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="30">
-        <v>0</v>
-      </c>
-      <c r="R25" s="30">
+      <c r="O25" s="19">
+        <v>0</v>
+      </c>
+      <c r="P25" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>0</v>
+      </c>
+      <c r="R25" s="19">
         <v>12</v>
       </c>
-      <c r="S25" s="30">
+      <c r="S25" s="19">
         <v>6</v>
       </c>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="19">
         <v>21</v>
       </c>
-      <c r="E26" s="30">
-        <v>1</v>
-      </c>
-      <c r="F26" s="30">
-        <v>1</v>
-      </c>
-      <c r="G26" s="30">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30">
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
         <v>4</v>
       </c>
-      <c r="I26" s="30">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30">
-        <v>0</v>
-      </c>
-      <c r="K26" s="30">
-        <v>1</v>
-      </c>
-      <c r="L26" s="30">
-        <v>0</v>
-      </c>
-      <c r="M26" s="30">
-        <v>0</v>
-      </c>
-      <c r="N26" s="30">
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0</v>
+      </c>
+      <c r="K26" s="19">
+        <v>1</v>
+      </c>
+      <c r="L26" s="19">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19">
+        <v>0</v>
+      </c>
+      <c r="N26" s="19">
         <v>4</v>
       </c>
-      <c r="O26" s="30">
-        <v>0</v>
-      </c>
-      <c r="P26" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="30">
-        <v>0</v>
-      </c>
-      <c r="R26" s="30">
+      <c r="O26" s="19">
+        <v>0</v>
+      </c>
+      <c r="P26" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>0</v>
+      </c>
+      <c r="R26" s="19">
         <v>12</v>
       </c>
-      <c r="S26" s="30">
-        <v>1</v>
-      </c>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
+      <c r="S26" s="19">
+        <v>1</v>
+      </c>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
     </row>
     <row r="27" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -17535,62 +18725,62 @@
       <c r="B27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="25">
         <v>8</v>
       </c>
-      <c r="E27" s="36">
-        <v>0</v>
-      </c>
-      <c r="F27" s="36">
-        <v>1</v>
-      </c>
-      <c r="G27" s="36">
-        <v>0</v>
-      </c>
-      <c r="H27" s="36">
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>1</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
         <v>4</v>
       </c>
-      <c r="I27" s="36">
-        <v>0</v>
-      </c>
-      <c r="J27" s="36">
-        <v>0</v>
-      </c>
-      <c r="K27" s="36">
-        <v>0</v>
-      </c>
-      <c r="L27" s="36">
-        <v>0</v>
-      </c>
-      <c r="M27" s="36">
-        <v>0</v>
-      </c>
-      <c r="N27" s="36">
-        <v>0</v>
-      </c>
-      <c r="O27" s="36">
+      <c r="I27" s="25">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0</v>
+      </c>
+      <c r="L27" s="25">
+        <v>0</v>
+      </c>
+      <c r="M27" s="25">
+        <v>0</v>
+      </c>
+      <c r="N27" s="25">
+        <v>0</v>
+      </c>
+      <c r="O27" s="25">
         <v>4</v>
       </c>
-      <c r="P27" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="36">
-        <v>0</v>
-      </c>
-      <c r="R27" s="36">
-        <v>0</v>
-      </c>
-      <c r="S27" s="36">
-        <v>0</v>
-      </c>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
+      <c r="P27" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>0</v>
+      </c>
+      <c r="R27" s="25">
+        <v>0</v>
+      </c>
+      <c r="S27" s="25">
+        <v>0</v>
+      </c>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
     </row>
     <row r="28" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -17598,170 +18788,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0D74D8-FCF3-0F40-882D-50231299CCA9}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="59" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59" style="42"/>
-    <col min="2" max="16384" width="59" style="37"/>
+    <col min="1" max="16384" width="59" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="A15" s="31"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
+      <c r="A16" s="31"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="A17" s="31"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
+      <c r="A18" s="31"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
+      <c r="A19" s="31"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
+      <c r="A20" s="31"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="31"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+      <c r="A23" s="31"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
+      <c r="A24" s="31"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
+      <c r="A25" s="31"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
+      <c r="A26" s="31"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+      <c r="A27" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
